--- a/Tabela.xlsx
+++ b/Tabela.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pastas_Pessoais\CarloMantovani\Alest3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aloysio.medeiros\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5316B401-F526-46F3-B228-E7D4C2A87ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB7405A-826A-4D61-BCFE-B96A9CEA30E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{01586623-E5DB-412B-87FA-ACDBE6EB8396}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" xr2:uid="{01586623-E5DB-412B-87FA-ACDBE6EB8396}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>x</t>
   </si>
@@ -69,63 +58,6 @@
   </si>
   <si>
     <t>64 bits</t>
-  </si>
-  <si>
-    <t>266.02s</t>
-  </si>
-  <si>
-    <t>0.006s</t>
-  </si>
-  <si>
-    <t>0.00005s</t>
-  </si>
-  <si>
-    <t>0.000004s</t>
-  </si>
-  <si>
-    <t>0.0001s</t>
-  </si>
-  <si>
-    <t>0.1119s</t>
-  </si>
-  <si>
-    <t>0.00047s</t>
-  </si>
-  <si>
-    <t>0.0019s</t>
-  </si>
-  <si>
-    <t>0.8011s</t>
-  </si>
-  <si>
-    <t>0.00045s</t>
-  </si>
-  <si>
-    <t>0.00059s</t>
-  </si>
-  <si>
-    <t>0.00046s</t>
-  </si>
-  <si>
-    <t>0.0023s</t>
-  </si>
-  <si>
-    <t>BaseMult</t>
-  </si>
-  <si>
-    <t>0.00032s</t>
-  </si>
-  <si>
-    <t>0.00026s</t>
-  </si>
-  <si>
-    <t>MultDCM</t>
-  </si>
-  <si>
-    <t>0.00020s</t>
-  </si>
-  <si>
-    <t>0.00062s</t>
   </si>
 </sst>
 </file>
@@ -181,7 +113,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -477,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4964236A-DA5D-49D8-B7E4-72C0F3458DFD}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,14 +444,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
+      <c r="B2">
+        <v>118</v>
+      </c>
+      <c r="C2">
+        <v>19979</v>
+      </c>
+      <c r="D2">
+        <v>19645379</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -535,14 +467,14 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
+      <c r="B3">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>2048</v>
+      </c>
+      <c r="D3">
+        <v>1048576</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -558,14 +490,14 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
+      <c r="B4">
+        <v>63</v>
+      </c>
+      <c r="C4">
+        <v>4095</v>
+      </c>
+      <c r="D4">
+        <v>2097151</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
@@ -590,60 +522,14 @@
       <c r="D5" t="s">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5">
         <v>21</v>
       </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
+      <c r="F5">
+        <v>85</v>
+      </c>
+      <c r="G5">
+        <v>5461</v>
       </c>
     </row>
   </sheetData>
